--- a/Managment/Plans/ACS_WBS.xlsx
+++ b/Managment/Plans/ACS_WBS.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="WBS Diagram" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>WBS OUTLINE &amp; DIAGRAM TEMPLATE</t>
   </si>
@@ -184,9 +189,6 @@
     <t>RTOS scheduler</t>
   </si>
   <si>
-    <t>System verification</t>
-  </si>
-  <si>
     <t>Mohamed Hassan</t>
   </si>
   <si>
@@ -194,13 +196,49 @@
   </si>
   <si>
     <t xml:space="preserve">Digital air conditioning system  </t>
+  </si>
+  <si>
+    <t>System testing</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Test case exection</t>
+  </si>
+  <si>
+    <t>Bug reports</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>3.2.3</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>Beta Testing</t>
+  </si>
+  <si>
+    <t>Alpha Testing</t>
+  </si>
+  <si>
+    <t>3.3.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -266,6 +304,31 @@
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -370,30 +433,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -441,14 +482,45 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,6 +599,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4138,13 +4213,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1023480</xdr:colOff>
+      <xdr:colOff>895349</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>139680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1706760</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -4155,8 +4230,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9614880" y="2288520"/>
-          <a:ext cx="2773080" cy="454680"/>
+          <a:off x="9353549" y="2282805"/>
+          <a:ext cx="3305175" cy="454680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4363,15 +4438,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>930960</xdr:colOff>
+      <xdr:colOff>111810</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>35085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1842840</xdr:colOff>
+      <xdr:colOff>1023690</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>121485</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4380,7 +4455,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11612160" y="3088800"/>
+          <a:off x="10627410" y="3092610"/>
           <a:ext cx="911880" cy="543600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4459,7 +4534,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+            <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4469,9 +4544,8 @@
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Century Gothic"/>
-              <a:ea typeface="Century Gothic"/>
-            </a:rPr>
-            <a:t>System verification</a:t>
+            </a:rPr>
+            <a:t>Validation</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
             <a:solidFill>
@@ -4784,15 +4858,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>930960</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>216000</xdr:rowOff>
+      <xdr:colOff>140385</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>6450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1842840</xdr:colOff>
+      <xdr:colOff>1052265</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4801,7 +4875,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11446560" y="3959325"/>
+          <a:off x="10655985" y="3978375"/>
           <a:ext cx="911880" cy="1555650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5017,6 +5091,325 @@
             </a:rPr>
             <a:t>System Testing</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>73680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>124500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11734800" y="3095625"/>
+          <a:ext cx="911880" cy="543600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12600">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="t" rotWithShape="0">
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Century Gothic"/>
+              <a:ea typeface="Century Gothic"/>
+            </a:rPr>
+            <a:t>3.3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Century Gothic"/>
+              <a:ea typeface="Century Gothic"/>
+            </a:rPr>
+            <a:t>UAT </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>102255</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11763375" y="3962399"/>
+          <a:ext cx="911880" cy="1562101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12600">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="t" rotWithShape="0">
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3.3.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Alpha</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Testing</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3.3.2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Beta Testing</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5110,7 +5503,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5145,7 +5538,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5359,61 +5752,61 @@
   </sheetPr>
   <dimension ref="A1:AMK39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" style="9" customWidth="1"/>
-    <col min="2" max="8" width="27" style="9" customWidth="1"/>
-    <col min="9" max="9" width="3" style="9" customWidth="1"/>
-    <col min="10" max="1025" width="10.875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="2" max="8" width="27" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="10.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="13" t="s">
+      <c r="C4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="21">
         <v>43191</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5468,399 +5861,465 @@
   <sheetPr>
     <tabColor rgb="FF588894"/>
   </sheetPr>
-  <dimension ref="A1:AMK36"/>
+  <dimension ref="A1:AMK42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" style="9" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="9" customWidth="1"/>
-    <col min="3" max="3" width="45" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="24" style="9" customWidth="1"/>
-    <col min="6" max="6" width="3" style="9" customWidth="1"/>
-    <col min="7" max="1025" width="10.875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3" style="1" customWidth="1"/>
+    <col min="7" max="1025" width="10.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="12"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="18">
         <v>43191</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20">
+      <c r="B8" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20">
+      <c r="B10" s="12">
         <v>1.2</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20">
+      <c r="B14" s="12">
         <v>1.3</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="19">
+      <c r="B17" s="11">
         <v>2</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20">
+      <c r="B18" s="12">
         <v>2.1</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="20">
+      <c r="B20" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="20">
+      <c r="B27" s="12">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="19">
+      <c r="B29" s="11">
         <v>3</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="20">
+      <c r="B30" s="12">
         <v>3.1</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
     </row>
     <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
     </row>
     <row r="33" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
     </row>
     <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
     </row>
-    <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="26">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="12">
         <v>3.2</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="C36" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="28">
+        <v>3.3</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="33">
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
     <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>